--- a/SeleniumJava/Config/Register.xlsx
+++ b/SeleniumJava/Config/Register.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="58">
   <si>
     <t>TestCaseID</t>
   </si>

--- a/SeleniumJava/Config/Register.xlsx
+++ b/SeleniumJava/Config/Register.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Selenium\Java\SeleniumJava\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jun11\git\SeleniumJava\SeleniumJava\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238932DE-BCED-4469-AA99-943042494A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0ED311-9C2A-4FB4-B056-1AA82C41DD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="58">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -189,19 +189,19 @@
     <t>newjun5@test.com</t>
   </si>
   <si>
+    <t>CloseApplication</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
     <t>org.openqa.selenium.NoSuchElementException</t>
-  </si>
-  <si>
-    <t>CloseApplication</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,9 +582,9 @@
         <v>51</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -599,9 +599,9 @@
         <v>51</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -616,9 +616,9 @@
         <v>51</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5863CC-F39D-4953-94C3-06AD5C230B7F}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,8 +680,8 @@
       <c r="F2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>53</v>
+      <c r="G2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -694,8 +694,8 @@
       <c r="F3" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>53</v>
+      <c r="G3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -711,8 +711,8 @@
       <c r="F4" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>53</v>
+      <c r="G4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -728,8 +728,8 @@
       <c r="F5" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>53</v>
+      <c r="G5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -745,8 +745,8 @@
       <c r="F6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>53</v>
+      <c r="G6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -763,8 +763,8 @@
       <c r="F7" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>53</v>
+      <c r="G7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -780,8 +780,8 @@
       <c r="F8" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>53</v>
+      <c r="G8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -797,8 +797,8 @@
       <c r="F9" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>53</v>
+      <c r="G9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -811,8 +811,8 @@
       <c r="F10" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>53</v>
+      <c r="G10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -831,10 +831,10 @@
       <c r="F11" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s" s="0">
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -846,10 +846,10 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
         <v>56</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -870,9 +870,9 @@
         <v>54</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -884,21 +884,21 @@
         <v>45</v>
       </c>
       <c r="F14" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
         <v>56</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G15" t="s" s="0">
-        <v>53</v>
+      <c r="G15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +915,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F2" sqref="F2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,8 +966,8 @@
       <c r="F2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>53</v>
+      <c r="G2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -980,8 +980,8 @@
       <c r="F3" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>53</v>
+      <c r="G3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -997,8 +997,8 @@
       <c r="F4" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>53</v>
+      <c r="G4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1014,8 +1014,8 @@
       <c r="F5" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>53</v>
+      <c r="G5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1031,8 +1031,8 @@
       <c r="F6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>53</v>
+      <c r="G6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1048,8 +1048,8 @@
       <c r="F7" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>53</v>
+      <c r="G7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1065,8 +1065,8 @@
       <c r="F8" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>53</v>
+      <c r="G8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1082,8 +1082,8 @@
       <c r="F9" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>53</v>
+      <c r="G9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1096,8 +1096,8 @@
       <c r="F10" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>53</v>
+      <c r="G10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1116,22 +1116,22 @@
       <c r="F11" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s" s="0">
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>53</v>
+      <c r="G12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590D7505-72F7-4213-A5FF-A6BA2CF3E367}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,8 +1198,8 @@
       <c r="F2" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>53</v>
+      <c r="G2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1212,8 +1212,8 @@
       <c r="F3" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G3" t="s" s="0">
-        <v>53</v>
+      <c r="G3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1229,8 +1229,8 @@
       <c r="F4" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>53</v>
+      <c r="G4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1246,8 +1246,8 @@
       <c r="F5" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>53</v>
+      <c r="G5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1263,8 +1263,8 @@
       <c r="F6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G6" t="s" s="0">
-        <v>53</v>
+      <c r="G6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1280,8 +1280,8 @@
       <c r="F7" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G7" t="s" s="0">
-        <v>53</v>
+      <c r="G7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1297,8 +1297,8 @@
       <c r="F8" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G8" t="s" s="0">
-        <v>53</v>
+      <c r="G8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1314,8 +1314,8 @@
       <c r="F9" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G9" t="s" s="0">
-        <v>53</v>
+      <c r="G9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1328,8 +1328,8 @@
       <c r="F10" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>53</v>
+      <c r="G10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1348,22 +1348,22 @@
       <c r="F11" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G11" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s" s="0">
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G12" t="s" s="0">
-        <v>53</v>
+      <c r="G12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
